--- a/data/trans_dic/P70A04_2007-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70A04_2007-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,51%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,09%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>57,83; 68,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>27,89; 45,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>51,11; 60,78</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,03%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>57,23; 64,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>44,97; 54,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>54,37; 59,75</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,67%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,58%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>57,07; 68,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>55,91; 68,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>58,8; 66,26</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,24%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>59,34; 64,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>48,09; 55,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>56,3; 60,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P70A04_2007-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70A04_2007-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,83; 68,93</t>
+          <t>57,57; 68,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,89; 45,81</t>
+          <t>28,79; 46,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,11; 60,78</t>
+          <t>50,79; 60,54</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,23; 64,15</t>
+          <t>57,79; 64,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,97; 54,13</t>
+          <t>44,88; 54,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,37; 59,75</t>
+          <t>54,02; 59,67</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,07; 68,09</t>
+          <t>57,2; 67,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,91; 68,51</t>
+          <t>56,5; 69,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,8; 66,26</t>
+          <t>58,66; 66,49</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,34; 64,09</t>
+          <t>59,19; 63,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,09; 55,37</t>
+          <t>48,18; 54,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,3; 60,37</t>
+          <t>56,17; 60,29</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene un servicio de prevención de riesgos laborales en su empresa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>196301</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43493</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>239794</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>177965; 212474</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>34097; 54883</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>217142; 258841</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>558022</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>233104</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>791126</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>529916; 589537</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>211042; 254953</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>749380; 827798</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>217899</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>155734</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>373633</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>198868; 234851</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>140869; 173111</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>350205; 396953</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>924</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>972221</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>432331</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1404553</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>931470; 1006572</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>403762; 459693</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1354657; 1454098</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>